--- a/results/Homeopathy_excluded/mod1.strain.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod1.strain.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.31482745430817</v>
+        <v>-0.314826357810453</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0172141697530559</v>
+        <v>0.0172141348207015</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.348566607047918</v>
+        <v>-0.348565442084045</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.281088301568422</v>
+        <v>-0.281087273536861</v>
       </c>
       <c r="G2" t="n">
-        <v>-18.2888549854274</v>
+        <v>-18.2888284011722</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000101525281490464</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000101574801376733</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.028161544505011</v>
+        <v>-0.0281614956292714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.038410583494067</v>
+        <v>0.0384105463527741</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.103444904778551</v>
+        <v>-0.103444783107215</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0471218157685291</v>
+        <v>0.0471217918486722</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.733171484087474</v>
+        <v>-0.733170920575503</v>
       </c>
       <c r="H3" t="n">
-        <v>0.463453845269745</v>
+        <v>0.463454188920955</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.245493427934865</v>
+        <v>0.245492715549794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0149129023812782</v>
+        <v>0.0149128860870233</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>0.216264676362598</v>
+        <v>0.21626399591368</v>
       </c>
       <c r="F4" t="n">
-        <v>0.274722179507132</v>
+        <v>0.274721435185908</v>
       </c>
       <c r="G4" t="n">
-        <v>16.4618141833383</v>
+        <v>16.4617844002319</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000690010130872364</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000690349754358263</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0974955708783157</v>
+        <v>0.0974951378899298</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0137622629382316</v>
+        <v>0.0137622462103928</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0705220311736113</v>
+        <v>0.070521630971187</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12446911058302</v>
+        <v>0.124468644808673</v>
       </c>
       <c r="G5" t="n">
-        <v>7.08426886740207</v>
+        <v>7.08424601619933</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00000000000139780293106028</v>
+        <v>0.00000000000139803357652942</v>
       </c>
     </row>
   </sheetData>
